--- a/ExcelDriven/demodata.xlsx
+++ b/ExcelDriven/demodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programmes\eclipse-workspace\ExcelDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A973366-41C9-41C4-B6C8-5280873EC149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E092C173-EE12-47CC-AFA8-8056454E80B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3492" windowWidth="17280" windowHeight="8964" xr2:uid="{58E7D0C2-743C-4E28-9A24-821F6399E72F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58E7D0C2-743C-4E28-9A24-821F6399E72F}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Testcases</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>ds</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
   <si>
     <t>fd</t>
@@ -446,7 +443,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="D5 F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,13 +512,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
